--- a/document/01项目计划表.xlsx
+++ b/document/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52261C-A9E7-4B1E-9330-DC0AB0BB5AD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33624B-14A1-4774-9338-600C7E8AD0D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -219,14 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总结：阅读完需求规格说明书后，觉得有些需求不大完善，与实际使用有些出入，所以经过小组讨论后，新增了一些实际需要的功能，例如聊天、动态分享、好友分组等，详细见用例设计文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,6 +224,55 @@
   </si>
   <si>
     <t>总结：此阶段小组编写用例规约，因为用例数量较多，所以小组成员在上一阶段修改完用例后就开始编写用例描述。注：本小组将用例描述与UI设计分成两阶段，先做用例规约，再进行UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此阶段做了以上界面的设计初稿，以图片形式插入的UI设计文档中。由于时间关系，设计稿附属文字描述暂无，后边会补上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第七周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端忘记密码功能界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端好友分组管理界面设计；App端好友搜索界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端界面主体结构设计；Web端登录界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端用户管理界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端群组管理界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端消息界面设计；App端群组管理界面设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -792,7 +829,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -912,7 +949,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -926,7 +963,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -951,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -963,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -975,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -987,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -999,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -1011,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1020,7 +1057,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1034,7 +1071,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1059,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -1071,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1083,10 +1120,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -1095,10 +1132,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -1107,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -1119,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1140,8 +1177,106 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>

--- a/document/01项目计划表.xlsx
+++ b/document/01项目计划表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33624B-14A1-4774-9338-600C7E8AD0D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B991434-C287-4FCF-9025-ADEBECB7ACD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -39,113 +39,84 @@
     <t>备注</t>
   </si>
   <si>
+    <t>李光洪</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>吴彤林</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;管理员&gt;）</t>
+  </si>
+  <si>
+    <t>劳汉文</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
+  </si>
+  <si>
+    <t>方嘉耀</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
+  </si>
+  <si>
+    <t>成世靖</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
+  </si>
+  <si>
+    <t>丰浩</t>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
+  </si>
+  <si>
+    <t>总结：阅读完需求规格说明书后，觉得有些需求不大完善，与实际使用有些出入，所以经过小组讨论后，新增了一些实际需要的功能，例如聊天、动态分享、好友分组等，详细见用例设计文档</t>
+  </si>
+  <si>
     <t>日期：2018.10.08 第六周周一</t>
   </si>
   <si>
-    <t>李光洪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴彤林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方嘉耀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳汉文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成世靖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰浩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;管理员&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
   </si>
   <si>
     <t>已完成用例图设计，下一阶段开始编写用例描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;管理员&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;管理员&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：上一阶段用例设计过程出现了一些明显缺陷，例如用例名存在歧义、难以理解，功能实现过程缺少用例，出现多余用例的情况。此阶段小组成员对此进行重新讨论与修改，将有歧义的用例修正，删除多余不规范用例，添加必要用例。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日期：2018.10.</t>
     </r>
     <r>
@@ -154,7 +125,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,10 +141,38 @@
       </rPr>
       <t xml:space="preserve"> 第六周周三</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;管理员&gt;）</t>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
+  </si>
+  <si>
+    <t>总结：此阶段小组编写用例规约，因为用例数量较多，所以小组成员在上一阶段修改完用例后就开始编写用例描述。注：本小组将用例描述与UI设计分成两阶段，先做用例规约，再进行UI设计</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日期：2018.10.11</t>
     </r>
     <r>
@@ -188,50 +186,38 @@
       </rPr>
       <t xml:space="preserve"> 第六周周四</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端UI总体结构设计；app端地图界面设计</t>
+  </si>
+  <si>
+    <t>App登录界面、注册界面设计</t>
   </si>
   <si>
     <t>App端通讯录功能界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>App端动态功能界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>App端个人功能界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>App端UI总体结构设计；app端地图界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>App端聊天界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>App登录界面、注册界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：阅读完需求规格说明书后，觉得有些需求不大完善，与实际使用有些出入，所以经过小组讨论后，新增了一些实际需要的功能，例如聊天、动态分享、好友分组等，详细见用例设计文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：上一阶段用例设计过程出现了一些明显缺陷，例如用例名存在歧义、难以理解，功能实现过程缺少用例，出现多余用例的情况。此阶段小组成员对此进行重新讨论与修改，将有歧义的用例修正，删除多余不规范用例，添加必要用例。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：此阶段小组编写用例规约，因为用例数量较多，所以小组成员在上一阶段修改完用例后就开始编写用例描述。注：本小组将用例描述与UI设计分成两阶段，先做用例规约，再进行UI设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总结：此阶段做了以上界面的设计初稿，以图片形式插入的UI设计文档中。由于时间关系，设计稿附属文字描述暂无，后边会补上。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日期：2018.10.15</t>
     </r>
     <r>
@@ -245,34 +231,95 @@
       </rPr>
       <t xml:space="preserve"> 第七周周一</t>
     </r>
+  </si>
+  <si>
+    <t>App端好友分组管理界面设计；App端好友搜索界面设计</t>
+  </si>
+  <si>
+    <t>App端消息界面设计；App端群组管理界面设计</t>
+  </si>
+  <si>
+    <t>Web端管理员端界面主体结构设计；Web端登录界面设计</t>
+  </si>
+  <si>
+    <t>Web端管理员端用户管理界面设计</t>
+  </si>
+  <si>
+    <t>Web端管理员端群组管理界面设计</t>
+  </si>
+  <si>
+    <t>App端忘记密码功能界面设计</t>
+  </si>
+  <si>
+    <t>总结：此阶段除了完成以上计划内容之外，小组成员还完成了群签到管理界面设计、群签到界面设计。同时，对之前的UI设计不合理的位置进行了更改，对用例规约进行修正，并将UI图置入用例规约说明书中。基本完成了UI设计，但有些细节处还未处理完全。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例用户群组管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例管理员，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例好友分组管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例动态分享，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例好友管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例用户个人管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
+  </si>
+  <si>
+    <t>总结：逻辑模型的关系理清、完全完成后才可以进行写物理模型；由于时间关系，物理模型还未整理关系</t>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+  </si>
+  <si>
+    <t>项目评审</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
+    <t>李光洪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>App端忘记密码功能界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、github创建空间及软件关联</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>App端好友分组管理界面设计；App端好友搜索界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、数据库结构优化及导入mysql</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Web端管理员端界面主体结构设计；Web端登录界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、app地图界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Web端管理员端用户管理界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、app聊天界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Web端管理员端群组管理界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、app通讯录界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>App端消息界面设计；App端群组管理界面设计</t>
+    <t>1、系统架构设计及开发工具确定；2、app“我的”界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：数据库设计不够完善，如：欠缺一些表和表缺少一些属性。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,15 +351,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -357,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,20 +405,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,26 +516,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,23 +551,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,12 +741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -757,79 +764,79 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -842,12 +849,12 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -865,91 +872,91 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
+      <c r="A19" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -962,12 +969,12 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -985,79 +992,79 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
+      <c r="A29" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1070,12 +1077,12 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1093,78 +1100,78 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="5"/>
@@ -1178,12 +1185,12 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1201,67 +1208,79 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>45</v>
+      <c r="A49" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1273,18 +1292,336 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A41:D41"/>
+  <mergeCells count="16">
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/01项目计划表.xlsx
+++ b/document/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B991434-C287-4FCF-9025-ADEBECB7ACD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC09DE-9897-4D69-9190-5F9D0D513F45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、系统架构设计及开发工具确定；2、app聊天界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、系统架构设计及开发工具确定；2、app通讯录界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,6 +316,10 @@
   </si>
   <si>
     <t>总结：数据库设计不够完善，如：欠缺一些表和表缺少一些属性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app聊天消息界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,19 +408,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -741,12 +741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -835,26 +835,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -955,26 +955,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1063,26 +1063,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1171,26 +1171,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1279,26 +1279,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1387,26 +1387,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1495,26 +1495,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1531,10 +1531,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="3"/>
@@ -1544,7 +1544,7 @@
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C74" s="3"/>
@@ -1554,7 +1554,7 @@
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C75" s="3"/>
@@ -1564,8 +1564,8 @@
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>68</v>
+      <c r="B76" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1574,8 +1574,8 @@
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>69</v>
+      <c r="B77" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1584,44 +1584,44 @@
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>70</v>
+      <c r="B78" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/01项目计划表.xlsx
+++ b/document/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC09DE-9897-4D69-9190-5F9D0D513F45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFABFC-9BEF-4CA4-9D2F-27CBD34987C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -284,42 +284,202 @@
     <t>项目评审</t>
   </si>
   <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李光洪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、github创建空间及软件关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、数据库结构优化及导入mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app地图界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app通讯录界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app“我的”界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：数据库设计不够完善，如：欠缺一些表和表缺少一些属性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app聊天消息界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
-  </si>
-  <si>
-    <t>日期：2018.10.22 第八周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李光洪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、github创建空间及软件关联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、数据库结构优化及导入mysql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、app地图界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、app通讯录界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、app“我的”界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：数据库设计不够完善，如：欠缺一些表和表缺少一些属性。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统架构设计及开发工具确定；2、app聊天消息界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app登录界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app注册界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app用户详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对github不熟悉，加上github宕机，所以只完成了创建了项目空间及个人关联，没能够小组全员关联上项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app密码重置界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组创建界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组通知界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组通知详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、理清服务器端逻辑与配置；2、mysql数据库表的创建；3、APP端项目逻辑结构搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、版本管理配置；2、服务器后台环境搭建；3、app界面模板编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：后台SSM框架已配置成功，由于小组内都对框架不了解，还需要花些时间理清一下逻辑、配置，为了节省时间，安排一个人负责服务端框架逻辑学习与构建，其他人负责App端UI界面编辑。预计本周五可以进行服务器端编码，下周可以进行app端逻辑编码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app动态界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录api；2、注册api；3、查询用户api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api实现及api接口文档撰写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app通讯录界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app消息界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app我的界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作app通讯录界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：经过几天阅读demo和查询基本上已经可以实现api接口，统一返回json数据。由于先前没有撰写api接口文档，所以下周将进行api接口实现及文档撰写，为了与前端能够尽快实现交互，具体为每写一个api接口文档即实现该api，两者同步进行。此外，下周开始，app端进行逻辑实现。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +511,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -395,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,16 +580,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -741,12 +916,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -835,26 +1010,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -955,26 +1130,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1063,26 +1238,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1171,26 +1346,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1279,26 +1454,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1387,26 +1562,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1495,26 +1670,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="A69" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="A71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1532,12 +1707,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,9 +1722,11 @@
         <v>8</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,9 +1734,11 @@
         <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,9 +1746,11 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,9 +1758,11 @@
         <v>14</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,27 +1770,346 @@
         <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="A79" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -1613,7 +2117,8 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A69:D70"/>
@@ -1622,6 +2127,8 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
